--- a/casting-net/Casting-net-N-and-w.xlsx
+++ b/casting-net/Casting-net-N-and-w.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>N</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>r-real</t>
   </si>
 </sst>
 </file>
@@ -405,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +432,11 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -447,14 +453,18 @@
         <v>0.66294542100776233</v>
       </c>
       <c r="E2">
-        <f>D2*$G$10</f>
+        <f>D2*$I$10</f>
         <v>106.07126736124198</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <f>E2/(2*PI())</f>
+        <v>16.881766520563684</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>9</v>
       </c>
@@ -471,14 +481,18 @@
         <v>4.3393004900551508</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:F14" si="3">D3*$G$10</f>
+        <f t="shared" ref="E3:E14" si="3">D3*$I$10</f>
         <v>694.28807840882416</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <f t="shared" ref="F3:F14" si="4">E3/(2*PI())</f>
+        <v>110.49937960853778</v>
+      </c>
+      <c r="H3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>10</v>
       </c>
@@ -498,11 +512,15 @@
         <f t="shared" si="3"/>
         <v>731.59115940932179</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <f t="shared" si="4"/>
+        <v>116.43634934232435</v>
+      </c>
+      <c r="H4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>11</v>
       </c>
@@ -522,11 +540,15 @@
         <f t="shared" si="3"/>
         <v>763.4180612320954</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>121.50175809071922</v>
+      </c>
+      <c r="H5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>12</v>
       </c>
@@ -546,11 +568,15 @@
         <f t="shared" si="3"/>
         <v>790.61481579373572</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>125.83025601526133</v>
+      </c>
+      <c r="H6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>13</v>
       </c>
@@ -570,11 +596,15 @@
         <f t="shared" si="3"/>
         <v>813.91579701084072</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>129.538722354855</v>
+      </c>
+      <c r="H7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>14</v>
       </c>
@@ -594,11 +624,15 @@
         <f t="shared" si="3"/>
         <v>833.9456278338846</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>132.72656893963685</v>
+      </c>
+      <c r="H8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>15</v>
       </c>
@@ -618,8 +652,12 @@
         <f t="shared" si="3"/>
         <v>851.22887120225289</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>135.47728255437286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>16</v>
       </c>
@@ -639,14 +677,19 @@
         <f t="shared" si="3"/>
         <v>866.20274297919923</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>137.86044826489811</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="2">
+      <c r="I10">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>17</v>
       </c>
@@ -666,8 +709,12 @@
         <f t="shared" si="3"/>
         <v>879.2302052218464</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>139.93383327675843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>18</v>
       </c>
@@ -687,8 +734,12 @@
         <f t="shared" si="3"/>
         <v>890.61212637853259</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>141.74532229072724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>19</v>
       </c>
@@ -708,8 +759,12 @@
         <f t="shared" si="3"/>
         <v>900.59796792147404</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>143.3346183332188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>20</v>
       </c>
@@ -728,6 +783,10 @@
       <c r="E14">
         <f t="shared" si="3"/>
         <v>909.39487571059487</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>144.73468969178097</v>
       </c>
     </row>
     <row r="20" spans="1:1">

--- a/casting-net/Casting-net-N-and-w.xlsx
+++ b/casting-net/Casting-net-N-and-w.xlsx
@@ -411,7 +411,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -789,7 +789,13 @@
         <v>144.73468969178097</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="17" spans="1:6">
+      <c r="F17">
+        <f>16/(PI()*3)</f>
+        <v>1.6976527263135504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>13</v>
       </c>
